--- a/data/refined_drivers/otherclimatedrivers_lookup.xlsx
+++ b/data/refined_drivers/otherclimatedrivers_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annalopresti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\GitHub\BCCAch7\data\refined_drivers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{375ABBDB-2172-CD4B-A68F-09F2D9E2886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361A0B9-F298-4CF5-BFEF-560D60592673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="520" windowWidth="14380" windowHeight="16440" activeTab="1" xr2:uid="{2621AD7F-AB1A-E74A-BB38-AD63999953F2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{2621AD7F-AB1A-E74A-BB38-AD63999953F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>raw</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>need to know what kind of ice in order to code this</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>surface water change</t>
@@ -614,17 +611,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8994F6-F41D-6944-BEB6-66E836A5D57A}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="60.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="60.1484375" customWidth="1"/>
+    <col min="2" max="2" width="21.1484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,7 +640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -654,7 +651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -662,7 +659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -673,7 +670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -681,7 +678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -689,7 +686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,7 +694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,7 +702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -713,7 +710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -721,7 +718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -729,34 +726,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -764,7 +761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -772,7 +769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -780,7 +777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -788,7 +785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -796,18 +793,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -815,7 +812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -823,23 +820,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -847,15 +844,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -863,7 +860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -871,15 +868,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -887,7 +884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -895,23 +892,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -919,15 +916,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -944,94 +941,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F89E10-CA8D-FC46-9106-B1361C4EBA63}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/refined_drivers/otherclimatedrivers_lookup.xlsx
+++ b/data/refined_drivers/otherclimatedrivers_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\GitHub\BCCAch7\data\refined_drivers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/lade8828_colorado_edu/Documents/Documents/GitHub/BCCAch7/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361A0B9-F298-4CF5-BFEF-560D60592673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{375ABBDB-2172-CD4B-A68F-09F2D9E2886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647033CF-E38D-8D4F-B434-DFD2DF986135}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{2621AD7F-AB1A-E74A-BB38-AD63999953F2}"/>
+    <workbookView xWindow="5880" yWindow="760" windowWidth="24360" windowHeight="16440" xr2:uid="{2621AD7F-AB1A-E74A-BB38-AD63999953F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>raw</t>
   </si>
@@ -189,9 +189,6 @@
     <t>freshwater temperature change</t>
   </si>
   <si>
-    <t>need to know what kind of ice in order to code this</t>
-  </si>
-  <si>
     <t>surface water change</t>
   </si>
   <si>
@@ -232,13 +229,19 @@
   </si>
   <si>
     <t>sub-category</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>natural disasters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +252,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos"/>
     </font>
   </fonts>
@@ -272,9 +288,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,16 +630,16 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.1484375" customWidth="1"/>
-    <col min="2" max="2" width="21.1484375" customWidth="1"/>
+    <col min="1" max="1" width="60.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -640,8 +658,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -651,15 +669,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -670,7 +691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -678,7 +699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,7 +707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -694,7 +715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -702,7 +723,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -710,7 +731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -718,7 +739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -726,66 +747,72 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -793,50 +820,56 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -844,15 +877,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -860,7 +893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -868,15 +901,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -884,7 +917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -892,39 +925,39 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -942,93 +975,93 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/refined_drivers/otherclimatedrivers_lookup.xlsx
+++ b/data/refined_drivers/otherclimatedrivers_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/lade8828_colorado_edu/Documents/Documents/GitHub/BCCAch7/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\GitHub\BCCAch7\data\refined_drivers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{375ABBDB-2172-CD4B-A68F-09F2D9E2886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647033CF-E38D-8D4F-B434-DFD2DF986135}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641816EC-0C3D-446B-863C-E8D5BFDA7A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="760" windowWidth="24360" windowHeight="16440" xr2:uid="{2621AD7F-AB1A-E74A-BB38-AD63999953F2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{2621AD7F-AB1A-E74A-BB38-AD63999953F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>raw</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>natural disasters</t>
+  </si>
+  <si>
+    <t>additional natural disasters (e.g.</t>
+  </si>
+  <si>
+    <t>snowpack change.</t>
+  </si>
+  <si>
+    <t>River water temperature; hydrology</t>
+  </si>
+  <si>
+    <t>River water temperature</t>
   </si>
 </sst>
 </file>
@@ -627,19 +639,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8994F6-F41D-6944-BEB6-66E836A5D57A}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="60.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="60.1484375" customWidth="1"/>
+    <col min="2" max="2" width="21.1484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,7 +670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -669,7 +681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -680,7 +692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -691,7 +703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,7 +711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,7 +719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -715,7 +727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -723,7 +735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,7 +743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -739,7 +751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -747,7 +759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -755,7 +767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -763,7 +775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -771,7 +783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -779,7 +791,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -790,7 +802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -801,7 +813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -812,7 +824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -820,7 +832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -831,7 +843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -842,7 +854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -853,7 +865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -861,7 +873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -869,7 +881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -877,7 +889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -885,7 +897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -893,7 +905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -901,7 +913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -909,7 +921,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -917,7 +929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -925,7 +937,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -933,7 +945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -941,7 +953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -949,7 +961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -957,12 +969,36 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -978,77 +1014,77 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1056,7 +1092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
